--- a/testreport/2 Ambivalence/uni_cat_sigtest/x2_Ambivalence_Do_you_consent_to_the_following_.xlsx
+++ b/testreport/2 Ambivalence/uni_cat_sigtest/x2_Ambivalence_Do_you_consent_to_the_following_.xlsx
@@ -402,7 +402,7 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0.886</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         <v>0.6</v>
       </c>
       <c r="E3">
-        <v>0.114</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -444,7 +444,7 @@
         <v>0.4</v>
       </c>
       <c r="E4">
-        <v>0.478</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="5">
@@ -465,7 +465,7 @@
         <v>0.4</v>
       </c>
       <c r="E5">
-        <v>0.506</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>0.3</v>
       </c>
       <c r="E6">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +507,7 @@
         <v>0.6</v>
       </c>
       <c r="E7">
-        <v>0.456</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="8">
@@ -528,7 +528,7 @@
         <v>0.3</v>
       </c>
       <c r="E8">
-        <v>0.04</v>
+        <v>0.024</v>
       </c>
     </row>
   </sheetData>
